--- a/Tercera Entrega Bis (Der, Diagrama de clases, Justificaciones, Diagrama de casos de uso y Diagrama de secuencia)/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
+++ b/Tercera Entrega Bis (Der, Diagrama de clases, Justificaciones, Diagrama de casos de uso y Diagrama de secuencia)/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soledadleiva/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\diseño\tp diseño\TP-Integrador-DS\Tercera Entrega Bis (Der, Diagrama de clases, Justificaciones, Diagrama de casos de uso y Diagrama de secuencia)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F0291E-B075-4F47-A9D5-3DB8E2E4FC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B126DEE-4C6D-471B-85D2-E0C8B8DF6E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860" tabRatio="140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimeraEntrega" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
   <si>
     <t>Decisión</t>
   </si>
@@ -293,10 +293,19 @@
     <t>RepoTransportePrivado</t>
   </si>
   <si>
-    <t>Usar para conocer las paradas intermedias y sus distancias.</t>
-  </si>
-  <si>
     <t>Usar para conocer el servicio externo y asi saber cómo calcular la distancia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar para conocer las paradas intermedias y sus distancias. </t>
+  </si>
+  <si>
+    <t>Ya que hay muchas formas de calcular hc y no es necesario que el usuario las conosca en detalle.</t>
+  </si>
+  <si>
+    <t>Tramo/Transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Tramo le pide al Transporte su strategy para poder calcular la destancia donde ya estan los datos. </t>
   </si>
 </sst>
 </file>
@@ -358,15 +367,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -706,22 +712,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="91.83203125" customWidth="1"/>
-    <col min="4" max="4" width="101.5" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="91.85546875" customWidth="1"/>
+    <col min="4" max="4" width="101.42578125" customWidth="1"/>
     <col min="5" max="5" width="163" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -738,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -755,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -772,7 +778,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -789,7 +795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -806,7 +812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -823,7 +829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
@@ -840,7 +846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -855,41 +861,41 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -906,7 +912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -921,211 +927,224 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
+      <c r="E20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>88</v>
       </c>
       <c r="C26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>86</v>
       </c>
       <c r="C28" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
